--- a/fhir/ValueSet-TreatmentRegimen-2025.xlsx
+++ b/fhir/ValueSet-TreatmentRegimen-2025.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -129,13 +129,13 @@
     <t>flagmito</t>
   </si>
   <si>
-    <t>FLAG-Ida eller lign inkl FLAG, Mito-FLAG</t>
+    <t>FLAG-Ida eller lign. inkl. FLAG, Mito-FLAG</t>
   </si>
   <si>
     <t>flagmitovene</t>
   </si>
   <si>
-    <t>FLAG-Ida eller lign inkl FLAG, Mito-FLAG + venetoclax</t>
+    <t>FLAG-Ida eller lign. inkl. FLAG, Mito-FLAG + venetoclax</t>
   </si>
   <si>
     <t>idarac</t>

--- a/fhir/ValueSet-TreatmentRegimen-2025.xlsx
+++ b/fhir/ValueSet-TreatmentRegimen-2025.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-TreatmentRegimen-2025.xlsx
+++ b/fhir/ValueSet-TreatmentRegimen-2025.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-TreatmentRegimen-2025.xlsx
+++ b/fhir/ValueSet-TreatmentRegimen-2025.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-TreatmentRegimen-2025.xlsx
+++ b/fhir/ValueSet-TreatmentRegimen-2025.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
